--- a/MIC1 microinstruction synthesizer.xlsx
+++ b/MIC1 microinstruction synthesizer.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26914"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD2764B-7DF1-4435-8650-49AE0BF9C4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="264"/>
   </bookViews>
   <sheets>
     <sheet name="SYNTHESIS" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>NEXT_ADDR</t>
   </si>
@@ -87,16 +75,19 @@
     <t>MAR</t>
   </si>
   <si>
-    <t>write</t>
-  </si>
-  <si>
     <t>MIR</t>
+  </si>
+  <si>
+    <t>B+1</t>
+  </si>
+  <si>
+    <t>fetch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -279,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -328,6 +319,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -348,30 +348,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -384,6 +366,30 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,27 +406,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Heading" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Neutral" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Accent" xfId="1"/>
+    <cellStyle name="Accent 1" xfId="2"/>
+    <cellStyle name="Accent 2" xfId="3"/>
+    <cellStyle name="Accent 3" xfId="4"/>
+    <cellStyle name="Bad" xfId="5"/>
+    <cellStyle name="Error" xfId="6"/>
+    <cellStyle name="Footnote" xfId="7"/>
+    <cellStyle name="Good" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading 1" xfId="10"/>
+    <cellStyle name="Heading 2" xfId="11"/>
+    <cellStyle name="Neutral" xfId="12"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Status" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Text" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Warning" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Note" xfId="13"/>
+    <cellStyle name="Status" xfId="14"/>
+    <cellStyle name="Text" xfId="15"/>
+    <cellStyle name="Warning" xfId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,11 +859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -877,228 +886,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="11" t="s">
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="2">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="7" t="str">
         <f>HEX2BIN(A2,9)</f>
         <v>000000000</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="str">
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="str">
         <f>HEX2BIN(C2,3)</f>
-        <v>000</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <f>IF(H2="A",24,IF(H2="B",20,IF(H2="AN",26,IF(H2="BN",44,IF(H2="A+B",60,IF(H2="B+1",53,IF(H2="0",16,IF(H2="B-1",54,IF(H2="A OR B",28,IF(H2="B-A",63,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="R2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="10">
         <f>IF(R2="fetch",1,IF(R2="read",2,IF(R2="write",4,IF(R2="wr&amp;fetch",5,0))))</f>
-        <v>4</v>
-      </c>
-      <c r="T2" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10" t="str">
         <f>DEC2BIN(S2,3)</f>
-        <v>100</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="8">
+        <v>001</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="5">
         <f>IF(U2="MDR",0,IF(U2="PC",1,IF(U2="MBR",2,IF(U2="MBRU",3,IF(U2="SP",4,IF(U2="LV",5,IF(U2="CPP",6,IF(U2="TOS",7,8))))))))</f>
-        <v>7</v>
-      </c>
-      <c r="W2" s="8" t="str">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5" t="str">
         <f>DEC2BIN(V2,4)</f>
-        <v>0111</v>
+        <v>0001</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="14" t="str">
         <f>DEC2BIN(G2,6)</f>
-        <v>000000</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6">
+        <v>110101</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="9">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="9">
         <v>0</v>
       </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="23.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13" t="str">
+      <c r="A4" s="4"/>
+      <c r="B4" s="15" t="str">
         <f>CONCATENATE(B2,D2,E3,F3,G3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,T2,W2)</f>
-        <v>000000000000000000000000000001000111</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+        <v>000000000100001101010000001000010001</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="23.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B6:P6"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B4:P4"/>

--- a/MIC1 microinstruction synthesizer.xlsx
+++ b/MIC1 microinstruction synthesizer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="264"/>
   </bookViews>
   <sheets>
     <sheet name="SYNTHESIS" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>NEXT_ADDR</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>MIR</t>
-  </si>
-  <si>
-    <t>B+1</t>
-  </si>
-  <si>
-    <t>fetch</t>
   </si>
 </sst>
 </file>
@@ -348,68 +342,87 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -862,269 +875,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="15" sqref="U2 R2 Q3 P3 O3 N3 M3 L3 K3 J3 I3 H2 F3 E3 C2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="17" width="5.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="7" customWidth="1"/>
+    <col min="9" max="17" width="5.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="13" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="str">
+      <c r="A2" s="25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="str">
         <f>HEX2BIN(A2,9)</f>
-        <v>000000000</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="str">
+        <v>000000010</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="str">
         <f>HEX2BIN(C2,3)</f>
-        <v>100</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>000</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <f>IF(H2="A",24,IF(H2="B",20,IF(H2="AN",26,IF(H2="BN",44,IF(H2="A+B",60,IF(H2="B+1",53,IF(H2="0",16,IF(H2="B-1",54,IF(H2="A OR B",28,IF(H2="B-A",63,0))))))))))</f>
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="10">
+      <c r="R2" s="20"/>
+      <c r="S2" s="12">
         <f>IF(R2="fetch",1,IF(R2="read",2,IF(R2="write",4,IF(R2="wr&amp;fetch",5,0))))</f>
-        <v>1</v>
-      </c>
-      <c r="T2" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12" t="str">
         <f>DEC2BIN(S2,3)</f>
-        <v>001</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="5">
+        <v>000</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="13">
         <f>IF(U2="MDR",0,IF(U2="PC",1,IF(U2="MBR",2,IF(U2="MBRU",3,IF(U2="SP",4,IF(U2="LV",5,IF(U2="CPP",6,IF(U2="TOS",7,8))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="W2" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13" t="str">
         <f>DEC2BIN(V2,4)</f>
-        <v>0001</v>
+        <v>0000</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="str">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="str">
         <f>DEC2BIN(G2,6)</f>
-        <v>110101</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+        <v>000000</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="1:23" ht="23.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="15" t="str">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="str">
         <f>CONCATENATE(B2,D2,E3,F3,G3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,T2,W2)</f>
-        <v>000000000100001101010000001000010001</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+        <v>000000010000000000000000000000000000</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
     </row>
     <row r="5" spans="1:23" ht="23.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
     </row>
     <row r="6" spans="1:23" ht="18.75">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection password="C889" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="U1:W1"/>

--- a/MIC1 microinstruction synthesizer.xlsx
+++ b/MIC1 microinstruction synthesizer.xlsx
@@ -344,6 +344,9 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,67 +365,64 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -876,264 +876,264 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="15" sqref="U2 R2 Q3 P3 O3 N3 M3 L3 K3 J3 I3 H2 F3 E3 C2 A2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="3" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" customWidth="1"/>
-    <col min="9" max="17" width="5.140625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="7" customWidth="1"/>
-    <col min="24" max="16384" width="11.5703125" style="7"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="17" width="5.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" ht="18.75">
-      <c r="A2" s="25">
+      <c r="A2" s="16">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="2" t="str">
         <f>HEX2BIN(A2,9)</f>
         <v>000000010</v>
       </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="str">
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="str">
         <f>HEX2BIN(C2,3)</f>
         <v>000</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <f>IF(H2="A",24,IF(H2="B",20,IF(H2="AN",26,IF(H2="BN",44,IF(H2="A+B",60,IF(H2="B+1",53,IF(H2="0",16,IF(H2="B-1",54,IF(H2="A OR B",28,IF(H2="B-A",63,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="12">
+      <c r="R2" s="11"/>
+      <c r="S2" s="6">
         <f>IF(R2="fetch",1,IF(R2="read",2,IF(R2="write",4,IF(R2="wr&amp;fetch",5,0))))</f>
         <v>0</v>
       </c>
-      <c r="T2" s="12" t="str">
+      <c r="T2" s="6" t="str">
         <f>DEC2BIN(S2,3)</f>
         <v>000</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="7">
         <f>IF(U2="MDR",0,IF(U2="PC",1,IF(U2="MBR",2,IF(U2="MBRU",3,IF(U2="SP",4,IF(U2="LV",5,IF(U2="CPP",6,IF(U2="TOS",7,8))))))))</f>
         <v>0</v>
       </c>
-      <c r="W2" s="13" t="str">
+      <c r="W2" s="7" t="str">
         <f>DEC2BIN(V2,4)</f>
         <v>0000</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="str">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19" t="str">
         <f>DEC2BIN(G2,6)</f>
         <v>000000</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
-        <v>0</v>
-      </c>
-      <c r="N3" s="21">
-        <v>0</v>
-      </c>
-      <c r="O3" s="21">
-        <v>0</v>
-      </c>
-      <c r="P3" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>0</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="23.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="str">
+      <c r="A4" s="9"/>
+      <c r="B4" s="20" t="str">
         <f>CONCATENATE(B2,D2,E3,F3,G3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,T2,W2)</f>
         <v>000000010000000000000000000000000000</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="23.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="18.75">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="C889" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection password="C889" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="U1:W1"/>

--- a/MIC1 microinstruction synthesizer.xlsx
+++ b/MIC1 microinstruction synthesizer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>NEXT_ADDR</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>MIR</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>A AND B</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -939,11 +945,11 @@
     </row>
     <row r="2" spans="1:23" ht="18.75">
       <c r="A2" s="16">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>HEX2BIN(A2,9)</f>
-        <v>000000010</v>
+        <v>000111000</v>
       </c>
       <c r="C2" s="15">
         <v>0</v>
@@ -959,10 +965,12 @@
         <v>8</v>
       </c>
       <c r="G2" s="4">
-        <f>IF(H2="A",24,IF(H2="B",20,IF(H2="AN",26,IF(H2="BN",44,IF(H2="A+B",60,IF(H2="B+1",53,IF(H2="0",16,IF(H2="B-1",54,IF(H2="A OR B",28,IF(H2="B-A",63,0))))))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="13"/>
+        <f>IF(H2="A",24,IF(H2="B",20,IF(H2="AN",26,IF(H2="BN",44,IF(H2="A+B",60,IF(H2="B+1",53,IF(H2="0",16,IF(H2="B-1",54,IF(H2="A OR B",28,IF(H2="B-A",63,IF(H2="A AND B",12,0)))))))))))</f>
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
@@ -990,25 +998,27 @@
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="S2" s="6">
         <f>IF(R2="fetch",1,IF(R2="read",2,IF(R2="write",4,IF(R2="wr&amp;fetch",5,0))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" s="6" t="str">
         <f>DEC2BIN(S2,3)</f>
-        <v>000</v>
+        <v>010</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V2" s="7">
         <f>IF(U2="MDR",0,IF(U2="PC",1,IF(U2="MBR",2,IF(U2="MBRU",3,IF(U2="SP",4,IF(U2="LV",5,IF(U2="CPP",6,IF(U2="TOS",7,8))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W2" s="7" t="str">
         <f>DEC2BIN(V2,4)</f>
-        <v>0000</v>
+        <v>0110</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="18.75">
@@ -1024,7 +1034,7 @@
       </c>
       <c r="G3" s="19" t="str">
         <f>DEC2BIN(G2,6)</f>
-        <v>000000</v>
+        <v>001100</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="12">
@@ -1052,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -1065,7 +1075,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="20" t="str">
         <f>CONCATENATE(B2,D2,E3,F3,G3,I3,J3,K3,L3,M3,N3,O3,P3,Q3,T2,W2)</f>
-        <v>000000010000000000000000000000000000</v>
+        <v>000111000000000011000000000010100110</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1133,7 +1143,7 @@
       <c r="P6" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="C889" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="U1:W1"/>
